--- a/Import/mhc.xlsx
+++ b/Import/mhc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95839bcc6a87b97e/Dokumenter/Leistad Fysioterapi og Trening AS/Master 23-25/IDR4000/Arbeidskrav/mollab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95839bcc6a87b97e/Dokumenter/Leistad Fysioterapi og Trening AS/Master 23-25/IDR4000/Arbeidskrav/mollab/Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{A345CAA1-CFF0-4833-B627-A203363F97FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E06FBCD-3A17-4419-856F-C34210821896}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{A345CAA1-CFF0-4833-B627-A203363F97FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D7B30C-8959-48A7-8F9B-428BD4477A3B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80DC07D6-E443-4D60-9899-02315561A0EA}"/>
+    <workbookView xWindow="1395" yWindow="315" windowWidth="13995" windowHeight="14835" xr2:uid="{80DC07D6-E443-4D60-9899-02315561A0EA}"/>
   </bookViews>
   <sheets>
     <sheet name="MHC" sheetId="2" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849126A-C853-4236-9821-86F679F10610}">
   <dimension ref="A3:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,9 @@
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="11.42578125" style="1"/>
     <col min="14" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="16" max="22" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="10.28515625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
